--- a/UTS_UAS_rubrik_grades.xlsx
+++ b/UTS_UAS_rubrik_grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacko Luciano\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codinh isenh\html test\ii2100\all-about-me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924700AE-02C9-4940-8978-9F82C58F0D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB597DA-3395-478B-AC61-283300F39A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -149,13 +149,22 @@
   </si>
   <si>
     <t>Jacko Luciano</t>
+  </si>
+  <si>
+    <t>Fawwaz Aydin Mustofa</t>
+  </si>
+  <si>
+    <t>Illona Nasywa Hannum</t>
+  </si>
+  <si>
+    <t>Rezky Muhammad Hafiz Batubara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,16 +180,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343A40"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343A40"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343A40"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,15 +238,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD6D8D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD6D8D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,13 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -654,7 +708,7 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19624266</v>
+        <v>18224101</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -672,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -718,6 +772,210 @@
       </c>
       <c r="V2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>18224109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3.75</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>3.5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>4.25</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>18224081</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4.25</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>18224023</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3.75</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4.5</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
